--- a/FinalResults/MergeSort.xlsx
+++ b/FinalResults/MergeSort.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TuDublin\Masters Project\Git Clone\MastersProject2021\Results\MergeSort\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TuDublin\Masters Project\Git Clone\MastersProject2021\FinalResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEDE436-0771-419C-BE8D-AAD3A33ACD0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04ABCF8-0B07-4912-9DF7-421C2D0623B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>AssemblyScript</t>
   </si>
@@ -38,11 +38,17 @@
   <si>
     <t>Rust</t>
   </si>
+  <si>
+    <t>Iteration</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -72,8 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,452 +361,546 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="18.140625" customWidth="1"/>
+    <col min="2" max="5" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
         <v>3.3195529000000001E-2</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="1">
         <v>1.0802859999999999E-2</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="1">
         <v>1.3244017E-2</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="1">
         <v>6.5168831999999996E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>5.3658637000000002E-2</v>
       </c>
-      <c r="B3">
+      <c r="C3" s="1">
         <v>1.7688639999999999E-2</v>
       </c>
-      <c r="C3">
+      <c r="D3" s="1">
         <v>9.6322730000000002E-3</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="1">
         <v>0.13110523600000001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
         <v>5.9250393999999998E-2</v>
       </c>
-      <c r="B4">
+      <c r="C4" s="1">
         <v>1.1748929E-2</v>
       </c>
-      <c r="C4">
+      <c r="D4" s="1">
         <v>1.0136841000000001E-2</v>
       </c>
-      <c r="D4">
+      <c r="E4" s="1">
         <v>0.15181758100000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
         <v>4.9995314999999999E-2</v>
       </c>
-      <c r="B5">
+      <c r="C5" s="1">
         <v>1.6423474E-2</v>
       </c>
-      <c r="C5">
+      <c r="D5" s="1">
         <v>6.1339929999999999E-3</v>
       </c>
-      <c r="D5">
+      <c r="E5" s="1">
         <v>0.16065776200000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
         <v>6.0984228000000001E-2</v>
       </c>
-      <c r="B6">
+      <c r="C6" s="1">
         <v>1.0151212E-2</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="1">
         <v>1.8431216E-2</v>
       </c>
-      <c r="D6">
+      <c r="E6" s="1">
         <v>0.16589282299999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
         <v>4.8268340999999999E-2</v>
       </c>
-      <c r="B7">
+      <c r="C7" s="1">
         <v>1.4009561E-2</v>
       </c>
-      <c r="C7">
+      <c r="D7" s="1">
         <v>1.8557773999999999E-2</v>
       </c>
-      <c r="D7">
+      <c r="E7" s="1">
         <v>0.154742675</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
         <v>6.5914984999999995E-2</v>
       </c>
-      <c r="B8">
+      <c r="C8" s="1">
         <v>9.2299760000000008E-3</v>
       </c>
-      <c r="C8">
+      <c r="D8" s="1">
         <v>7.6213399999999999E-3</v>
       </c>
-      <c r="D8">
+      <c r="E8" s="1">
         <v>0.144325278</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
         <v>5.0272921999999998E-2</v>
       </c>
-      <c r="B9">
+      <c r="C9" s="1">
         <v>6.2333650000000003E-3</v>
       </c>
-      <c r="C9">
+      <c r="D9" s="1">
         <v>1.1515124E-2</v>
       </c>
-      <c r="D9">
+      <c r="E9" s="1">
         <v>0.149915409</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
         <v>6.5385269999999995E-2</v>
       </c>
-      <c r="B10">
+      <c r="C10" s="1">
         <v>1.3675437E-2</v>
       </c>
-      <c r="C10">
+      <c r="D10" s="1">
         <v>1.0863302E-2</v>
       </c>
-      <c r="D10">
+      <c r="E10" s="1">
         <v>0.173219865</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
         <v>5.2415440000000001E-2</v>
       </c>
-      <c r="B11">
+      <c r="C11" s="1">
         <v>1.2452072E-2</v>
       </c>
-      <c r="C11">
+      <c r="D11" s="1">
         <v>6.8883800000000004E-3</v>
       </c>
-      <c r="D11">
+      <c r="E11" s="1">
         <v>0.12676048300000001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
         <v>5.4245781E-2</v>
       </c>
-      <c r="B12">
+      <c r="C12" s="1">
         <v>1.0525625E-2</v>
       </c>
-      <c r="C12">
+      <c r="D12" s="1">
         <v>1.0024735999999999E-2</v>
       </c>
-      <c r="D12">
+      <c r="E12" s="1">
         <v>0.12266028299999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
         <v>6.8819720000000001E-2</v>
       </c>
-      <c r="B13">
+      <c r="C13" s="1">
         <v>9.0914689999999996E-3</v>
       </c>
-      <c r="C13">
+      <c r="D13" s="1">
         <v>1.4368222999999999E-2</v>
       </c>
-      <c r="D13">
+      <c r="E13" s="1">
         <v>0.117920336</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
         <v>4.0599087999999998E-2</v>
       </c>
-      <c r="B14">
+      <c r="C14" s="1">
         <v>9.9962820000000004E-3</v>
       </c>
-      <c r="C14">
+      <c r="D14" s="1">
         <v>8.5287939999999993E-3</v>
       </c>
-      <c r="D14">
+      <c r="E14" s="1">
         <v>0.14630523100000001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
         <v>5.1957191E-2</v>
       </c>
-      <c r="B15">
+      <c r="C15" s="1">
         <v>1.3362529E-2</v>
       </c>
-      <c r="C15">
+      <c r="D15" s="1">
         <v>1.0223546E-2</v>
       </c>
-      <c r="D15">
+      <c r="E15" s="1">
         <v>0.138847948</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
         <v>5.6486926E-2</v>
       </c>
-      <c r="B16">
+      <c r="C16" s="1">
         <v>6.0289219999999999E-3</v>
       </c>
-      <c r="C16">
+      <c r="D16" s="1">
         <v>1.0986895E-2</v>
       </c>
-      <c r="D16">
+      <c r="E16" s="1">
         <v>0.136150198</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
         <v>5.8383523999999999E-2</v>
       </c>
-      <c r="B17">
+      <c r="C17" s="1">
         <v>1.1643294E-2</v>
       </c>
-      <c r="C17">
+      <c r="D17" s="1">
         <v>1.0052118000000001E-2</v>
       </c>
-      <c r="D17">
+      <c r="E17" s="1">
         <v>0.14559742000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
         <v>5.6263944000000003E-2</v>
       </c>
-      <c r="B18">
+      <c r="C18" s="1">
         <v>1.7164136E-2</v>
       </c>
-      <c r="C18">
+      <c r="D18" s="1">
         <v>1.3914022E-2</v>
       </c>
-      <c r="D18">
+      <c r="E18" s="1">
         <v>0.11273069600000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
         <v>6.0209873999999997E-2</v>
       </c>
-      <c r="B19">
+      <c r="C19" s="1">
         <v>1.4902864E-2</v>
       </c>
-      <c r="C19">
+      <c r="D19" s="1">
         <v>1.6897860000000001E-2</v>
       </c>
-      <c r="D19">
+      <c r="E19" s="1">
         <v>7.2939869000000004E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
         <v>5.7720768999999998E-2</v>
       </c>
-      <c r="B20">
+      <c r="C20" s="1">
         <v>9.7443370000000005E-3</v>
       </c>
-      <c r="C20">
+      <c r="D20" s="1">
         <v>1.6252585E-2</v>
       </c>
-      <c r="D20">
+      <c r="E20" s="1">
         <v>7.1218199999999995E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
         <v>5.7672930999999997E-2</v>
       </c>
-      <c r="B21">
+      <c r="C21" s="1">
         <v>1.0099235999999999E-2</v>
       </c>
-      <c r="C21">
+      <c r="D21" s="1">
         <v>1.5114661E-2</v>
       </c>
-      <c r="D21">
+      <c r="E21" s="1">
         <v>6.3103742000000004E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
         <v>6.1382880000000001E-2</v>
       </c>
-      <c r="B22">
+      <c r="C22" s="1">
         <v>1.7376905000000002E-2</v>
       </c>
-      <c r="C22">
+      <c r="D22" s="1">
         <v>1.1730714999999999E-2</v>
       </c>
-      <c r="D22">
+      <c r="E22" s="1">
         <v>7.9836880999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
         <v>6.0753636999999999E-2</v>
       </c>
-      <c r="B23">
+      <c r="C23" s="1">
         <v>1.0885667999999999E-2</v>
       </c>
-      <c r="C23">
+      <c r="D23" s="1">
         <v>1.0130016E-2</v>
       </c>
-      <c r="D23">
+      <c r="E23" s="1">
         <v>5.9124942999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
         <v>4.7397590000000003E-2</v>
       </c>
-      <c r="B24">
+      <c r="C24" s="1">
         <v>1.1613102E-2</v>
       </c>
-      <c r="C24">
+      <c r="D24" s="1">
         <v>1.4011938E-2</v>
       </c>
-      <c r="D24">
+      <c r="E24" s="1">
         <v>7.9905105000000004E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
         <v>5.3962309999999999E-2</v>
       </c>
-      <c r="B25">
+      <c r="C25" s="1">
         <v>1.0586371000000001E-2</v>
       </c>
-      <c r="C25">
+      <c r="D25" s="1">
         <v>1.0677361E-2</v>
       </c>
-      <c r="D25">
+      <c r="E25" s="1">
         <v>7.8515196999999995E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
         <v>5.7610229999999998E-2</v>
       </c>
-      <c r="B26">
+      <c r="C26" s="1">
         <v>1.2493363E-2</v>
       </c>
-      <c r="C26">
+      <c r="D26" s="1">
         <v>1.0134729E-2</v>
       </c>
-      <c r="D26">
+      <c r="E26" s="1">
         <v>6.5439215999999994E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
         <v>5.9437110000000001E-2</v>
       </c>
-      <c r="B27">
+      <c r="C27" s="1">
         <v>1.7975965E-2</v>
       </c>
-      <c r="C27">
+      <c r="D27" s="1">
         <v>1.4439415000000001E-2</v>
       </c>
-      <c r="D27">
+      <c r="E27" s="1">
         <v>5.9463374999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
         <v>6.8770952999999996E-2</v>
       </c>
-      <c r="B28">
+      <c r="C28" s="1">
         <v>1.2035201000000001E-2</v>
       </c>
-      <c r="C28">
+      <c r="D28" s="1">
         <v>9.6376970000000006E-3</v>
       </c>
-      <c r="D28">
+      <c r="E28" s="1">
         <v>7.5058666999999996E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
         <v>5.5250597999999998E-2</v>
       </c>
-      <c r="B29">
+      <c r="C29" s="1">
         <v>1.1756384E-2</v>
       </c>
-      <c r="C29">
+      <c r="D29" s="1">
         <v>2.1182196E-2</v>
       </c>
-      <c r="D29">
+      <c r="E29" s="1">
         <v>8.3267593000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
         <v>5.7097093000000002E-2</v>
       </c>
-      <c r="B30">
+      <c r="C30" s="1">
         <v>1.1636308999999999E-2</v>
       </c>
-      <c r="C30">
+      <c r="D30" s="1">
         <v>1.3554841999999999E-2</v>
       </c>
-      <c r="D30">
+      <c r="E30" s="1">
         <v>6.9212291999999995E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
         <v>4.5476386000000001E-2</v>
       </c>
-      <c r="B31">
+      <c r="C31" s="1">
         <v>1.4540295E-2</v>
       </c>
-      <c r="C31">
+      <c r="D31" s="1">
         <v>1.5174175E-2</v>
       </c>
-      <c r="D31">
+      <c r="E31" s="1">
         <v>6.5920049999999994E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>